--- a/demo.xlsx
+++ b/demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>AC School</t>
   </si>
@@ -27,27 +27,9 @@
     <t>ALPHAZA ROSE GEORGE</t>
   </si>
   <si>
-    <t>Brand 2</t>
-  </si>
-  <si>
-    <t>Brand 1</t>
-  </si>
-  <si>
-    <t>director of</t>
-  </si>
-  <si>
-    <t>director name</t>
-  </si>
-  <si>
-    <t>principal of</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -60,9 +42,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>test location</t>
-  </si>
-  <si>
     <t>AC school,Bangalore</t>
   </si>
   <si>
@@ -90,15 +69,9 @@
     <t>SHIVA ASETTI</t>
   </si>
   <si>
-    <t>Principal name</t>
-  </si>
-  <si>
     <t>yantro mitra</t>
   </si>
   <si>
-    <t>BENNY KUMAR MANGIJNA</t>
-  </si>
-  <si>
     <t>ac school PUBLIC SCHOOL</t>
   </si>
   <si>
@@ -135,13 +108,49 @@
     <t>http://davschoolbangalore.in/wp-content/uploads/2017/05/cropped-logo-1-e1494932537279.png</t>
   </si>
   <si>
-    <t>brand3</t>
-  </si>
-  <si>
-    <t>personmiddle</t>
-  </si>
-  <si>
-    <t>designation</t>
+    <t>Brand3(Fill for 3 logos)</t>
+  </si>
+  <si>
+    <t>Designation(fill only for 3 persons)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Event name</t>
+  </si>
+  <si>
+    <t>Category(Fill only for state certificate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEST PROJECT PRESENTATION </t>
+  </si>
+  <si>
+    <t>BENNY KUMAR</t>
+  </si>
+  <si>
+    <t>Principal of</t>
+  </si>
+  <si>
+    <t>Director of</t>
+  </si>
+  <si>
+    <t>Brand 1-url for logo</t>
+  </si>
+  <si>
+    <t>Brand 2-url for logo</t>
+  </si>
+  <si>
+    <t>Event location</t>
+  </si>
+  <si>
+    <t>Person3(Signature in the middle)</t>
+  </si>
+  <si>
+    <t>Person2</t>
+  </si>
+  <si>
+    <t>Person1</t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,6 +218,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -217,7 +237,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -226,6 +246,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,111 +554,129 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="8" width="46.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="41" customWidth="1"/>
-    <col min="14" max="14" width="46.28515625" customWidth="1"/>
+    <col min="6" max="9" width="46.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="41" customWidth="1"/>
+    <col min="15" max="15" width="88" customWidth="1"/>
+    <col min="16" max="16" width="32.5703125" customWidth="1"/>
+    <col min="17" max="17" width="25.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>38</v>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,40 +687,52 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>38</v>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -692,44 +743,109 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" s="8">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5" s="8">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5" s="8">
+        <v>14</v>
+      </c>
+      <c r="P5">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>38</v>
+      <c r="Q5" s="8">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>AC School</t>
   </si>
@@ -24,9 +24,6 @@
     <t>ANANYA JULIA BAXLA</t>
   </si>
   <si>
-    <t>ALPHAZA ROSE GEORGE</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
@@ -42,66 +39,15 @@
     <t>date</t>
   </si>
   <si>
-    <t>AC school,Bangalore</t>
-  </si>
-  <si>
     <t>grade</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>31.10.2018</t>
-  </si>
-  <si>
-    <t>01.11.2018</t>
-  </si>
-  <si>
     <t>02.11.2018</t>
   </si>
   <si>
-    <t>SHIVA ASETTI</t>
-  </si>
-  <si>
-    <t>yantro mitra</t>
-  </si>
-  <si>
-    <t>ac school PUBLIC SCHOOL</t>
-  </si>
-  <si>
-    <t>P MDFGD KULKARMI</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENNY </t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>P MDFGD</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>ac school P</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>yantr</t>
-  </si>
-  <si>
     <t>http://yantromitra.in/img/logo-2.png</t>
   </si>
   <si>
@@ -114,9 +60,6 @@
     <t>Designation(fill only for 3 persons)</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Event name</t>
   </si>
   <si>
@@ -151,6 +94,24 @@
   </si>
   <si>
     <t>Person1</t>
+  </si>
+  <si>
+    <t>Nargiz</t>
+  </si>
+  <si>
+    <t>AC school, Bangalore</t>
+  </si>
+  <si>
+    <t>P M KULKARMI</t>
+  </si>
+  <si>
+    <t>AC PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>Yantromitra Robotics</t>
+  </si>
+  <si>
+    <t>RAJESH KUMAR</t>
   </si>
 </sst>
 </file>
@@ -195,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,17 +179,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -237,7 +187,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,7 +196,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,294 +510,128 @@
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="41" customWidth="1"/>
     <col min="15" max="15" width="88" customWidth="1"/>
-    <col min="16" max="16" width="32.5703125" customWidth="1"/>
+    <col min="16" max="16" width="61.140625" customWidth="1"/>
     <col min="17" max="17" width="25.42578125" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" s="8">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5" s="8">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5" s="8">
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5" s="8">
-        <v>14</v>
-      </c>
-      <c r="P5">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>16</v>
-      </c>
-      <c r="R5">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="O3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="P2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -187,7 +187,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -196,6 +196,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,22 +577,22 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="4" t="s">

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -187,7 +187,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -196,7 +196,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,22 +576,22 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="4" t="s">
